--- a/Feature Result.xlsx
+++ b/Feature Result.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\ERSP_McAuley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliqin/Documents/ERSP_McAuley/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11200" windowHeight="20440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -71,11 +77,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,14 +123,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,17 +458,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="234" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,128 +479,129 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.66400000000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.70499999999999996</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.82799999999999996</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.85299999999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.85599999999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.85899999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.85799999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.85699999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Feature Result.xlsx
+++ b/Feature Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11200" windowHeight="20440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Feature List</t>
   </si>
@@ -41,37 +41,40 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>4, 1</t>
-  </si>
-  <si>
-    <t>4, 1, 3</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2, 5</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2, 5, 9</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2, 5, 9, 7</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2, 5, 9, 7, 8</t>
-  </si>
-  <si>
-    <t>4, 1, 3, 6, 10, 2, 5, 9, 7, 8, 0</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3, 1</t>
+  </si>
+  <si>
+    <t>3, 1, 11</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5, 8</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5, 8, 7</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5, 8, 7, 0</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5, 8, 7, 0, 4</t>
+  </si>
+  <si>
+    <t>3, 1, 11, 6, 2, 9, 5, 8, 7, 0, 4, 10</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -131,19 +134,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,16 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="234" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -480,125 +494,140 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.872</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.85699999999999998</v>
-      </c>
+      <c r="B12" s="3">
+        <v>0.879</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
